--- a/output/Clustering/fish/find_k_validity_measures_fish_clean_PCs.xlsx
+++ b/output/Clustering/fish/find_k_validity_measures_fish_clean_PCs.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.668</v>
+        <v>0.628</v>
       </c>
       <c r="E2" t="n">
-        <v>1.232</v>
+        <v>1.297</v>
       </c>
       <c r="F2" t="n">
-        <v>1.21</v>
+        <v>1.273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.331</v>
+        <v>0.291</v>
       </c>
       <c r="H2" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.668</v>
+        <v>0.628</v>
       </c>
       <c r="E3" t="n">
-        <v>1.223</v>
+        <v>1.123</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>1.067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.35</v>
+        <v>0.409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1.01</v>
+        <v>1.131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.988</v>
+        <v>1.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.276</v>
+        <v>0.177</v>
       </c>
       <c r="H4" t="n">
-        <v>1.567</v>
+        <v>1.599</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -500,22 +500,22 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133</v>
+        <v>1.016</v>
       </c>
       <c r="F5" t="n">
-        <v>1.071</v>
+        <v>0.935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.212</v>
+        <v>0.321</v>
       </c>
       <c r="H5" t="n">
-        <v>1.813</v>
+        <v>1.788</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668</v>
+        <v>0.628</v>
       </c>
       <c r="E6" t="n">
-        <v>1.223</v>
+        <v>1.123</v>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.24</v>
+        <v>0.319</v>
       </c>
       <c r="H6" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -558,22 +558,22 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0.418</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -587,22 +587,22 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.133</v>
+        <v>1.016</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071</v>
+        <v>0.935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.169</v>
+        <v>0.264</v>
       </c>
       <c r="H8" t="n">
-        <v>1.813</v>
+        <v>1.788</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -613,25 +613,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0.654</v>
       </c>
       <c r="E9" t="n">
-        <v>0.72</v>
+        <v>1.012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.729</v>
+        <v>1.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.424</v>
+        <v>0.234</v>
       </c>
       <c r="H9" t="n">
-        <v>1.454</v>
+        <v>1.585</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -642,25 +642,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.668</v>
+        <v>0.628</v>
       </c>
       <c r="E10" t="n">
-        <v>1.223</v>
+        <v>1.123</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>1.067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.15</v>
+        <v>0.257</v>
       </c>
       <c r="H10" t="n">
-        <v>1.906</v>
+        <v>1.909</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F11" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.332</v>
+        <v>0.29</v>
       </c>
       <c r="H11" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -703,22 +703,22 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>1.133</v>
+        <v>1.016</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071</v>
+        <v>0.935</v>
       </c>
       <c r="G12" t="n">
-        <v>0.169</v>
+        <v>0.264</v>
       </c>
       <c r="H12" t="n">
-        <v>1.813</v>
+        <v>1.788</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>0.654</v>
       </c>
       <c r="E13" t="n">
-        <v>0.72</v>
+        <v>1.012</v>
       </c>
       <c r="F13" t="n">
-        <v>0.729</v>
+        <v>1.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.424</v>
+        <v>0.216</v>
       </c>
       <c r="H13" t="n">
-        <v>1.454</v>
+        <v>1.585</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -761,22 +761,22 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.795</v>
+        <v>0.628</v>
       </c>
       <c r="E14" t="n">
-        <v>1.207</v>
+        <v>0.449</v>
       </c>
       <c r="F14" t="n">
-        <v>1.225</v>
+        <v>0.443</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.609</v>
       </c>
       <c r="H14" t="n">
-        <v>1.928</v>
+        <v>1.516</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -787,25 +787,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.668</v>
+        <v>0.766</v>
       </c>
       <c r="E15" t="n">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="F15" t="n">
-        <v>0.493</v>
+        <v>1.611</v>
       </c>
       <c r="G15" t="n">
-        <v>0.348</v>
+        <v>-0.077</v>
       </c>
       <c r="H15" t="n">
-        <v>1.751</v>
+        <v>2.278</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -819,22 +819,22 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F16" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.331</v>
+        <v>0.275</v>
       </c>
       <c r="H16" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -845,25 +845,25 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.963</v>
+        <v>0.864</v>
       </c>
       <c r="F17" t="n">
-        <v>0.931</v>
+        <v>0.87</v>
       </c>
       <c r="G17" t="n">
-        <v>0.161</v>
+        <v>0.24</v>
       </c>
       <c r="H17" t="n">
-        <v>1.616</v>
+        <v>1.702</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -874,25 +874,25 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>0.654</v>
       </c>
       <c r="E18" t="n">
-        <v>0.72</v>
+        <v>1.012</v>
       </c>
       <c r="F18" t="n">
-        <v>0.729</v>
+        <v>1.065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.424</v>
+        <v>0.216</v>
       </c>
       <c r="H18" t="n">
-        <v>1.454</v>
+        <v>1.585</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -903,25 +903,23 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.207</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.225</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.928</v>
+        <v>2.146</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -935,22 +933,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.777</v>
+        <v>0.628</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9</v>
+        <v>0.449</v>
       </c>
       <c r="F20" t="n">
-        <v>0.767</v>
+        <v>0.443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.258</v>
+        <v>0.609</v>
       </c>
       <c r="H20" t="n">
-        <v>1.869</v>
+        <v>1.516</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -961,25 +959,25 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.668</v>
+        <v>0.766</v>
       </c>
       <c r="E21" t="n">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="F21" t="n">
-        <v>0.493</v>
+        <v>1.611</v>
       </c>
       <c r="G21" t="n">
-        <v>0.348</v>
+        <v>-0.077</v>
       </c>
       <c r="H21" t="n">
-        <v>1.751</v>
+        <v>2.278</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -993,19 +991,19 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.245</v>
+        <v>0.275</v>
       </c>
       <c r="H22" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1019,22 +1017,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.963</v>
+        <v>0.864</v>
       </c>
       <c r="F23" t="n">
-        <v>0.931</v>
+        <v>0.87</v>
       </c>
       <c r="G23" t="n">
-        <v>0.161</v>
+        <v>0.24</v>
       </c>
       <c r="H23" t="n">
-        <v>1.616</v>
+        <v>1.702</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1048,22 +1046,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
         <v>0.654</v>
       </c>
       <c r="E24" t="n">
-        <v>0.72</v>
+        <v>1.012</v>
       </c>
       <c r="F24" t="n">
-        <v>0.729</v>
+        <v>1.065</v>
       </c>
       <c r="G24" t="n">
-        <v>0.423</v>
+        <v>0.202</v>
       </c>
       <c r="H24" t="n">
-        <v>1.454</v>
+        <v>1.585</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1077,22 +1075,20 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.207</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.225</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.928</v>
+        <v>2.146</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1109,19 +1105,19 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.777</v>
+        <v>0.628</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9</v>
+        <v>0.449</v>
       </c>
       <c r="F26" t="n">
-        <v>0.767</v>
+        <v>0.443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.258</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.869</v>
+        <v>1.516</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1135,22 +1131,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.668</v>
+        <v>0.766</v>
       </c>
       <c r="E27" t="n">
-        <v>0.437</v>
+        <v>1.061</v>
       </c>
       <c r="F27" t="n">
-        <v>0.443</v>
+        <v>1.061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.625</v>
+        <v>0.107</v>
       </c>
       <c r="H27" t="n">
-        <v>1.512</v>
+        <v>2.05</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1167,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.403</v>
+        <v>1.512</v>
       </c>
       <c r="E28" t="e">
         <v>#NUM!</v>
@@ -1177,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.559</v>
+        <v>2.645</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1194,19 +1190,19 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F29" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G29" t="n">
-        <v>0.245</v>
+        <v>0.265</v>
       </c>
       <c r="H29" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1220,22 +1216,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.963</v>
+        <v>0.864</v>
       </c>
       <c r="F30" t="n">
-        <v>0.931</v>
+        <v>0.87</v>
       </c>
       <c r="G30" t="n">
-        <v>0.161</v>
+        <v>0.214</v>
       </c>
       <c r="H30" t="n">
-        <v>1.616</v>
+        <v>1.702</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1249,22 +1245,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>0.654</v>
       </c>
       <c r="E31" t="n">
-        <v>0.72</v>
+        <v>0.731</v>
       </c>
       <c r="F31" t="n">
-        <v>0.729</v>
+        <v>0.616</v>
       </c>
       <c r="G31" t="n">
-        <v>0.357</v>
+        <v>0.338</v>
       </c>
       <c r="H31" t="n">
-        <v>1.454</v>
+        <v>1.437</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1278,22 +1274,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.849</v>
+        <v>0.687</v>
       </c>
       <c r="E32" t="n">
-        <v>0.793</v>
+        <v>1.109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.793</v>
+        <v>0.998</v>
       </c>
       <c r="G32" t="n">
-        <v>0.325</v>
+        <v>0.015</v>
       </c>
       <c r="H32" t="n">
-        <v>1.735</v>
+        <v>1.685</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1307,22 +1303,20 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.767</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="n">
-        <v>0.258</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.869</v>
+        <v>2.146</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1339,19 +1333,19 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.668</v>
+        <v>0.628</v>
       </c>
       <c r="E34" t="n">
-        <v>0.437</v>
+        <v>0.449</v>
       </c>
       <c r="F34" t="n">
         <v>0.443</v>
       </c>
       <c r="G34" t="n">
-        <v>0.614</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.512</v>
+        <v>1.516</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1368,19 +1362,19 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.795</v>
+        <v>0.766</v>
       </c>
       <c r="E35" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="F35" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="G35" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="H35" t="n">
-        <v>2.048</v>
+        <v>2.05</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1.403</v>
+        <v>1.512</v>
       </c>
       <c r="E36" t="e">
         <v>#NUM!</v>
@@ -1407,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.559</v>
+        <v>2.645</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -1424,19 +1418,19 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="F37" t="n">
-        <v>0.775</v>
+        <v>0.737</v>
       </c>
       <c r="G37" t="n">
-        <v>0.216</v>
+        <v>0.226</v>
       </c>
       <c r="H37" t="n">
-        <v>1.49</v>
+        <v>1.482</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1453,19 +1447,19 @@
         <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.673</v>
+        <v>0.637</v>
       </c>
       <c r="F38" t="n">
-        <v>0.673</v>
+        <v>0.689</v>
       </c>
       <c r="G38" t="n">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="H38" t="n">
-        <v>1.401</v>
+        <v>1.388</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1479,22 +1473,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>0.654</v>
       </c>
       <c r="E39" t="n">
-        <v>0.72</v>
+        <v>0.731</v>
       </c>
       <c r="F39" t="n">
-        <v>0.729</v>
+        <v>0.616</v>
       </c>
       <c r="G39" t="n">
-        <v>0.319</v>
+        <v>0.295</v>
       </c>
       <c r="H39" t="n">
-        <v>1.454</v>
+        <v>1.437</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1508,22 +1502,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0.849</v>
+        <v>0.687</v>
       </c>
       <c r="E40" t="n">
-        <v>0.793</v>
+        <v>1.109</v>
       </c>
       <c r="F40" t="n">
-        <v>0.793</v>
+        <v>0.998</v>
       </c>
       <c r="G40" t="n">
-        <v>0.325</v>
+        <v>0.015</v>
       </c>
       <c r="H40" t="n">
-        <v>1.735</v>
+        <v>1.685</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1537,22 +1531,20 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.767</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.869</v>
+        <v>2.146</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1569,19 +1561,19 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.668</v>
+        <v>0.75</v>
       </c>
       <c r="E42" t="n">
-        <v>0.437</v>
+        <v>0.765</v>
       </c>
       <c r="F42" t="n">
-        <v>0.443</v>
+        <v>0.71</v>
       </c>
       <c r="G42" t="n">
-        <v>0.614</v>
+        <v>0.127</v>
       </c>
       <c r="H42" t="n">
-        <v>1.512</v>
+        <v>1.798</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1595,20 +1587,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F43"/>
+        <v>0.628</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.443</v>
+      </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.156</v>
+        <v>1.516</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1625,19 +1619,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.795</v>
+        <v>0.766</v>
       </c>
       <c r="E44" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="F44" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="H44" t="n">
-        <v>2.048</v>
+        <v>2.05</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1654,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1.403</v>
+        <v>1.512</v>
       </c>
       <c r="E45" t="e">
         <v>#NUM!</v>
@@ -1664,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.559</v>
+        <v>2.645</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1681,19 +1675,19 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.649</v>
+        <v>0.651</v>
       </c>
       <c r="F46" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="G46" t="n">
-        <v>0.301</v>
+        <v>0.253</v>
       </c>
       <c r="H46" t="n">
-        <v>1.467</v>
+        <v>1.462</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1710,19 +1704,19 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0.673</v>
+        <v>0.637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.673</v>
+        <v>0.689</v>
       </c>
       <c r="G47" t="n">
-        <v>0.299</v>
+        <v>0.308</v>
       </c>
       <c r="H47" t="n">
-        <v>1.401</v>
+        <v>1.388</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1736,22 +1730,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>0.654</v>
       </c>
       <c r="E48" t="n">
-        <v>0.72</v>
+        <v>0.731</v>
       </c>
       <c r="F48" t="n">
-        <v>0.729</v>
+        <v>0.616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.318</v>
+        <v>0.255</v>
       </c>
       <c r="H48" t="n">
-        <v>1.454</v>
+        <v>1.437</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1765,22 +1759,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0.849</v>
+        <v>0.687</v>
       </c>
       <c r="E49" t="n">
-        <v>0.793</v>
+        <v>1.109</v>
       </c>
       <c r="F49" t="n">
-        <v>0.793</v>
+        <v>0.998</v>
       </c>
       <c r="G49" t="n">
-        <v>0.325</v>
+        <v>0.015</v>
       </c>
       <c r="H49" t="n">
-        <v>1.735</v>
+        <v>1.685</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -1794,22 +1788,20 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.767</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.869</v>
+        <v>2.146</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -1823,22 +1815,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>0.668</v>
+        <v>0.75</v>
       </c>
       <c r="E51" t="n">
-        <v>0.82</v>
+        <v>0.765</v>
       </c>
       <c r="F51" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="G51" t="n">
-        <v>0.144</v>
+        <v>0.127</v>
       </c>
       <c r="H51" t="n">
-        <v>1.302</v>
+        <v>1.798</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1852,22 +1844,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0.668</v>
+        <v>0.654</v>
       </c>
       <c r="E52" t="n">
-        <v>0.437</v>
+        <v>0.681</v>
       </c>
       <c r="F52" t="n">
-        <v>0.443</v>
+        <v>0.681</v>
       </c>
       <c r="G52" t="n">
-        <v>0.603</v>
+        <v>0.197</v>
       </c>
       <c r="H52" t="n">
-        <v>1.512</v>
+        <v>1.234</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1881,20 +1873,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="E53" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F53"/>
+        <v>0.628</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.443</v>
+      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.581</v>
       </c>
       <c r="H53" t="n">
-        <v>2.156</v>
+        <v>1.516</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1911,19 +1905,19 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>0.795</v>
+        <v>0.766</v>
       </c>
       <c r="E54" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="F54" t="n">
-        <v>1.071</v>
+        <v>1.061</v>
       </c>
       <c r="G54" t="n">
-        <v>0.035</v>
+        <v>0.105</v>
       </c>
       <c r="H54" t="n">
-        <v>2.048</v>
+        <v>2.05</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -1940,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.403</v>
+        <v>1.512</v>
       </c>
       <c r="E55" t="e">
         <v>#NUM!</v>
@@ -1950,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.559</v>
+        <v>2.645</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
